--- a/创客论坛/经费/工作量表-创客空间.xlsx
+++ b/创客论坛/经费/工作量表-创客空间.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="6315" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="16000" yWindow="1800" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>李寅</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +88,14 @@
   </si>
   <si>
     <t>校外人员 单位 卡号 开户行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6217900100001509812 中国银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6214830103957824 招行银行(大运村支行）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -170,8 +183,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -229,7 +242,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,7 +277,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -476,17 +489,17 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="27.75" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="17">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>15</v>
@@ -495,85 +508,135 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="17">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B2">
+        <v>2012212643</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>2012212651</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>2013213222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B6">
+        <v>2013213258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B7">
+        <v>2013213303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <v>2013213223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B9">
+        <v>2012212654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B10">
+        <v>2014224037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B11">
+        <v>2012212638</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B12">
+        <v>2013213230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <v>2013210409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <v>2013210329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17">
       <c r="A16" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2013310216</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -583,11 +646,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -597,10 +665,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>